--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt8a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt8a-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H2">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I2">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J2">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N2">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O2">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P2">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q2">
-        <v>1.037855254592</v>
+        <v>0.3010676022886667</v>
       </c>
       <c r="R2">
-        <v>6.227131527552</v>
+        <v>1.806405613732</v>
       </c>
       <c r="S2">
-        <v>0.09877639475975523</v>
+        <v>0.002434871721719617</v>
       </c>
       <c r="T2">
-        <v>0.0817655388742858</v>
+        <v>0.002128296407069274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H3">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I3">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J3">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.130444</v>
       </c>
       <c r="O3">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P3">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q3">
-        <v>0.8255473861742222</v>
+        <v>0.1931525802684444</v>
       </c>
       <c r="R3">
-        <v>7.429926475568</v>
+        <v>1.738373222416</v>
       </c>
       <c r="S3">
-        <v>0.07857029595296094</v>
+        <v>0.00156211346587164</v>
       </c>
       <c r="T3">
-        <v>0.097558874320094</v>
+        <v>0.002048141046112975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H4">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I4">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J4">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N4">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O4">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P4">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q4">
-        <v>0.00487212744</v>
+        <v>0.0003712797973333333</v>
       </c>
       <c r="R4">
-        <v>0.04384914695999999</v>
+        <v>0.003341518176</v>
       </c>
       <c r="S4">
-        <v>0.0004636977856054353</v>
+        <v>3.002709931259696E-06</v>
       </c>
       <c r="T4">
-        <v>0.000575762550461435</v>
+        <v>3.936956945923541E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H5">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I5">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J5">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N5">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O5">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P5">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q5">
-        <v>1.313558887054</v>
+        <v>0.185327931006</v>
       </c>
       <c r="R5">
-        <v>7.881353322324</v>
+        <v>1.111967586036</v>
       </c>
       <c r="S5">
-        <v>0.1250160950611916</v>
+        <v>0.001498831940138982</v>
       </c>
       <c r="T5">
-        <v>0.103486348185711</v>
+        <v>0.001310113631261679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H6">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I6">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J6">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N6">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O6">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P6">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q6">
-        <v>0.8302836380866666</v>
+        <v>0.002695527876888889</v>
       </c>
       <c r="R6">
-        <v>7.47255274278</v>
+        <v>0.024259750892</v>
       </c>
       <c r="S6">
-        <v>0.07902106197887385</v>
+        <v>2.17999696833894E-05</v>
       </c>
       <c r="T6">
-        <v>0.09811857981103593</v>
+        <v>2.858269497578044E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4039906666666667</v>
+        <v>0.09452133333333333</v>
       </c>
       <c r="H7">
-        <v>1.211972</v>
+        <v>0.283564</v>
       </c>
       <c r="I7">
-        <v>0.3832644895981764</v>
+        <v>0.005525598587839362</v>
       </c>
       <c r="J7">
-        <v>0.3832644895981765</v>
+        <v>0.005525598587839361</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N7">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O7">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P7">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q7">
-        <v>0.01488799871155556</v>
+        <v>0.000615617444</v>
       </c>
       <c r="R7">
-        <v>0.133991988404</v>
+        <v>0.005540556996</v>
       </c>
       <c r="S7">
-        <v>0.001416944059789389</v>
+        <v>4.978780494474134E-06</v>
       </c>
       <c r="T7">
-        <v>0.001759385856588305</v>
+        <v>6.527851473727093E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6500873333333334</v>
+        <v>16.98384066666667</v>
       </c>
       <c r="H8">
-        <v>1.950262</v>
+        <v>50.951522</v>
       </c>
       <c r="I8">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="J8">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N8">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O8">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P8">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q8">
-        <v>1.670079560032</v>
+        <v>54.09661509041433</v>
       </c>
       <c r="R8">
-        <v>10.020477360192</v>
+        <v>324.579690542486</v>
       </c>
       <c r="S8">
-        <v>0.1589474420175959</v>
+        <v>0.4375041263925425</v>
       </c>
       <c r="T8">
-        <v>0.1315741810669243</v>
+        <v>0.3824178711236655</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6500873333333334</v>
+        <v>16.98384066666667</v>
       </c>
       <c r="H9">
-        <v>1.950262</v>
+        <v>50.951522</v>
       </c>
       <c r="I9">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="J9">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>6.130444</v>
       </c>
       <c r="O9">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P9">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q9">
-        <v>1.328441330703111</v>
+        <v>34.70616137064088</v>
       </c>
       <c r="R9">
-        <v>11.955971976328</v>
+        <v>312.3554523357679</v>
       </c>
       <c r="S9">
-        <v>0.1264325104258296</v>
+        <v>0.2806846377638034</v>
       </c>
       <c r="T9">
-        <v>0.1569882516669157</v>
+        <v>0.3680153459893649</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6500873333333334</v>
+        <v>16.98384066666667</v>
       </c>
       <c r="H10">
-        <v>1.950262</v>
+        <v>50.951522</v>
       </c>
       <c r="I10">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="J10">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N10">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O10">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P10">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q10">
-        <v>0.00784005324</v>
+        <v>0.06671252613866667</v>
       </c>
       <c r="R10">
-        <v>0.07056047915999999</v>
+        <v>0.600412735248</v>
       </c>
       <c r="S10">
-        <v>0.0007461658938906407</v>
+        <v>0.0005395347827023065</v>
       </c>
       <c r="T10">
-        <v>0.0009264965058499858</v>
+        <v>0.0007074027325163848</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6500873333333334</v>
+        <v>16.98384066666667</v>
       </c>
       <c r="H11">
-        <v>1.950262</v>
+        <v>50.951522</v>
       </c>
       <c r="I11">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="J11">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N11">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O11">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P11">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q11">
-        <v>2.113731985709</v>
+        <v>33.300207903213</v>
       </c>
       <c r="R11">
-        <v>12.682391914254</v>
+        <v>199.801247419278</v>
       </c>
       <c r="S11">
-        <v>0.2011714293615939</v>
+        <v>0.2693140475246999</v>
       </c>
       <c r="T11">
-        <v>0.1665265306338439</v>
+        <v>0.2354046476482535</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6500873333333334</v>
+        <v>16.98384066666667</v>
       </c>
       <c r="H12">
-        <v>1.950262</v>
+        <v>50.951522</v>
       </c>
       <c r="I12">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="J12">
-        <v>0.6167355104018235</v>
+        <v>0.9928540224128104</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N12">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O12">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P12">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q12">
-        <v>1.336062737903333</v>
+        <v>0.4843395068517777</v>
       </c>
       <c r="R12">
-        <v>12.02456464113</v>
+        <v>4.359055561666</v>
       </c>
       <c r="S12">
-        <v>0.1271578669944871</v>
+        <v>0.003917075633446235</v>
       </c>
       <c r="T12">
-        <v>0.1578889097268176</v>
+        <v>0.005135813473775821</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.98384066666667</v>
+      </c>
+      <c r="H13">
+        <v>50.951522</v>
+      </c>
+      <c r="I13">
+        <v>0.9928540224128104</v>
+      </c>
+      <c r="J13">
+        <v>0.9928540224128104</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.006513000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.019539</v>
+      </c>
+      <c r="O13">
+        <v>0.0009010391209798237</v>
+      </c>
+      <c r="P13">
+        <v>0.001181383585860448</v>
+      </c>
+      <c r="Q13">
+        <v>0.110615754262</v>
+      </c>
+      <c r="R13">
+        <v>0.995541788358</v>
+      </c>
+      <c r="S13">
+        <v>0.0008946003156161209</v>
+      </c>
+      <c r="T13">
+        <v>0.001172941445234016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J14">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.1851815</v>
+      </c>
+      <c r="N14">
+        <v>6.370363</v>
+      </c>
+      <c r="O14">
+        <v>0.4406530230187619</v>
+      </c>
+      <c r="P14">
+        <v>0.3851702893788179</v>
+      </c>
+      <c r="Q14">
+        <v>0.08828792254416667</v>
+      </c>
+      <c r="R14">
+        <v>0.529727535265</v>
+      </c>
+      <c r="S14">
+        <v>0.0007140249044998474</v>
+      </c>
+      <c r="T14">
+        <v>0.0006241218480831331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J15">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.043481333333333</v>
+      </c>
+      <c r="N15">
+        <v>6.130444</v>
+      </c>
+      <c r="O15">
+        <v>0.2827048402157753</v>
+      </c>
+      <c r="P15">
+        <v>0.3706641033643825</v>
+      </c>
+      <c r="Q15">
+        <v>0.05664189675777778</v>
+      </c>
+      <c r="R15">
+        <v>0.50977707082</v>
+      </c>
+      <c r="S15">
+        <v>0.000458088986100338</v>
+      </c>
+      <c r="T15">
+        <v>0.0006006163289046722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J16">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.003928</v>
+      </c>
+      <c r="N16">
+        <v>0.011784</v>
+      </c>
+      <c r="O16">
+        <v>0.0005434180358066555</v>
+      </c>
+      <c r="P16">
+        <v>0.0007124942001013113</v>
+      </c>
+      <c r="Q16">
+        <v>0.0001088776133333333</v>
+      </c>
+      <c r="R16">
+        <v>0.00097989852</v>
+      </c>
+      <c r="S16">
+        <v>8.805431730893201E-07</v>
+      </c>
+      <c r="T16">
+        <v>1.15451063900309E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J17">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.9606995</v>
+      </c>
+      <c r="N17">
+        <v>3.921399</v>
+      </c>
+      <c r="O17">
+        <v>0.2712524111754306</v>
+      </c>
+      <c r="P17">
+        <v>0.2370989514411984</v>
+      </c>
+      <c r="Q17">
+        <v>0.0543473223075</v>
+      </c>
+      <c r="R17">
+        <v>0.326083933845</v>
+      </c>
+      <c r="S17">
+        <v>0.0004395317105918135</v>
+      </c>
+      <c r="T17">
+        <v>0.000384190161683306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.6500873333333334</v>
-      </c>
-      <c r="H13">
-        <v>1.950262</v>
-      </c>
-      <c r="I13">
-        <v>0.6167355104018235</v>
-      </c>
-      <c r="J13">
-        <v>0.6167355104018235</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.03685233333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.110557</v>
-      </c>
-      <c r="O13">
-        <v>0.003697039768215801</v>
-      </c>
-      <c r="P13">
-        <v>0.004590526658060303</v>
-      </c>
-      <c r="Q13">
-        <v>0.02395723510377778</v>
-      </c>
-      <c r="R13">
-        <v>0.215615115934</v>
-      </c>
-      <c r="S13">
-        <v>0.002280095708426411</v>
-      </c>
-      <c r="T13">
-        <v>0.002831140801471998</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J18">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.085553</v>
+      </c>
+      <c r="O18">
+        <v>0.003945268433245655</v>
+      </c>
+      <c r="P18">
+        <v>0.005172778029639129</v>
+      </c>
+      <c r="Q18">
+        <v>0.0007904621905555556</v>
+      </c>
+      <c r="R18">
+        <v>0.007114159715000001</v>
+      </c>
+      <c r="S18">
+        <v>6.392830116031109E-06</v>
+      </c>
+      <c r="T18">
+        <v>8.381860887528119E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02771833333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.08315500000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="J19">
+        <v>0.001620378999350348</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.006513000000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.019539</v>
+      </c>
+      <c r="O19">
+        <v>0.0009010391209798237</v>
+      </c>
+      <c r="P19">
+        <v>0.001181383585860448</v>
+      </c>
+      <c r="Q19">
+        <v>0.000180529505</v>
+      </c>
+      <c r="R19">
+        <v>0.001624765545</v>
+      </c>
+      <c r="S19">
+        <v>1.460024869228804E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.914289152705479E-06</v>
       </c>
     </row>
   </sheetData>
